--- a/doc/实验数据.xlsx
+++ b/doc/实验数据.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\signal\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\station-one\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91CEBD9A-C6CE-40EA-AA8B-CA665A43F323}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8182712-F07F-4FFB-82BB-BFA9698DF9C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{EED7CDB9-8F4F-44EE-8C8D-D75C87299E43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="2" xr2:uid="{EED7CDB9-8F4F-44EE-8C8D-D75C87299E43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Vctl</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,30 @@
   </si>
   <si>
     <t>Vcc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -10dB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100mVcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vout(mVcp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1278,6 +1302,698 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Z match</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$J$47:$J$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$K$47:$K$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>29.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D25F-4D9A-BBC6-1502FB82E834}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="796682920"/>
+        <c:axId val="796684888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="796682920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="796684888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="796684888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="796682920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>AF Filter</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$I$16:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$J$16:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-19CE-4D06-823B-F1345B19BF8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="807554328"/>
+        <c:axId val="807554656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="807554328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="807554656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="807554656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="807554328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1398,6 +2114,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2450,6 +3246,1076 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="247">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="100" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="79000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="60000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="247">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="100" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="79000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="60000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="247">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3094,6 +4960,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5605A2F1-AF67-441E-A287-E12B906BBB21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>661987</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{014C621B-817F-4283-897F-79207DCDB3A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3401,7 +5344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14C7E40-95AC-49C7-A9D6-9C817B3F7D66}">
   <dimension ref="C14:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -3675,10 +5618,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A617E27F-CD00-41F8-B929-D664A368486E}">
-  <dimension ref="F12:K35"/>
+  <dimension ref="F12:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:K19"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3929,7 +5872,7 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="33" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:11" x14ac:dyDescent="0.2">
       <c r="J33">
         <v>7</v>
       </c>
@@ -3937,7 +5880,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:11" x14ac:dyDescent="0.2">
       <c r="J34">
         <v>8</v>
       </c>
@@ -3945,12 +5888,243 @@
         <v>65.8</v>
       </c>
     </row>
-    <row r="35" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:11" x14ac:dyDescent="0.2">
       <c r="J35">
         <v>10</v>
       </c>
       <c r="K35">
         <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <v>-73</v>
+      </c>
+      <c r="H47">
+        <v>-44.5</v>
+      </c>
+      <c r="I47">
+        <f>H47-G47</f>
+        <v>28.5</v>
+      </c>
+      <c r="J47">
+        <v>0.1</v>
+      </c>
+      <c r="K47">
+        <v>29.05</v>
+      </c>
+    </row>
+    <row r="48" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <v>-73</v>
+      </c>
+      <c r="H48">
+        <v>-26.6</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ref="I48:I52" si="0">H48-G48</f>
+        <v>46.4</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>47.25</v>
+      </c>
+    </row>
+    <row r="49" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G49">
+        <v>-73</v>
+      </c>
+      <c r="H49">
+        <v>-17.29</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>55.71</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="50" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <v>-73</v>
+      </c>
+      <c r="H50">
+        <v>-13.85</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>59.15</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="K50">
+        <v>60.33</v>
+      </c>
+    </row>
+    <row r="51" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <v>-73</v>
+      </c>
+      <c r="H51">
+        <v>-11.8</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>61.2</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+      <c r="K51">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="52" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G52">
+        <v>-73</v>
+      </c>
+      <c r="H52">
+        <v>-10.53</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>62.47</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+      <c r="K52">
+        <v>63.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0EAF18-F89F-4EAF-8BB7-C598EE34B2A5}">
+  <dimension ref="H15:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="15" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>1000</v>
+      </c>
+      <c r="J16">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>2000</v>
+      </c>
+      <c r="J17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>3000</v>
+      </c>
+      <c r="J18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>4000</v>
+      </c>
+      <c r="J19">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>5000</v>
+      </c>
+      <c r="J20">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>6000</v>
+      </c>
+      <c r="J21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>7000</v>
+      </c>
+      <c r="J22">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="23" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>8000</v>
+      </c>
+      <c r="J23">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="24" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>9000</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>14000</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
